--- a/ig/ch-allergyintolerance/CodeSystem-allergyintolerance-criticality-supplement.xlsx
+++ b/ig/ch-allergyintolerance/CodeSystem-allergyintolerance-criticality-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -90,7 +90,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -275,10 +275,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-allergyintolerance/CodeSystem-allergyintolerance-criticality-supplement.xlsx
+++ b/ig/ch-allergyintolerance/CodeSystem-allergyintolerance-criticality-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
